--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1870B48-340D-4177-9619-7F401F776F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,16 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,197 +414,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="1" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B919FB6-DE06-4831-8EE9-50334B4796AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FF8D9-C955-4F3B-889E-185B40C8BD37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
   </bookViews>
   <sheets>
     <sheet name="template_file_format" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">template_file_format!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>code</t>
   </si>
@@ -101,13 +104,19 @@
   </si>
   <si>
     <t>tam</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>html File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,13 +971,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75675AD-CF53-4965-A4E4-E40E21499F14}">
-  <dimension ref="A1:J25"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,15 +1012,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1023,20 +1035,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1">
@@ -1046,12 +1058,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1069,7 +1081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1077,146 +1089,146 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1238,99 +1250,99 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1345,15 +1357,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1368,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1391,61 +1403,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1460,15 +1472,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1483,7 +1495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1491,68 +1503,96 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45337.275843611111</v>
+      </c>
+      <c r="I26" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{81847D30-E8BA-4F8F-ACBC-D076BDA625AD}">
+    <sortState ref="A2:J26">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371FF8D9-C955-4F3B-889E-185B40C8BD37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3704F-1C62-49D6-9E09-544EA1D8FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
   </bookViews>
   <sheets>
     <sheet name="template_file_format" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,13 +974,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1449,7 +1447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1588,11 +1586,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{81847D30-E8BA-4F8F-ACBC-D076BDA625AD}">
-    <sortState ref="A2:J26">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3704F-1C62-49D6-9E09-544EA1D8FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E85AE4D-19DF-4EFA-BE72-4DD1A1B3DC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
   </bookViews>
   <sheets>
     <sheet name="template_file_format" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
   <si>
     <t>code</t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t>tam</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>html File</t>
   </si>
 </sst>
 </file>
@@ -972,13 +966,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75675AD-CF53-4965-A4E4-E40E21499F14}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1033,20 +1029,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1">
@@ -1056,7 +1052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1079,7 +1075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1102,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1110,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1125,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1148,15 +1144,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1171,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1194,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1217,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1240,7 +1236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1263,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1286,15 +1282,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1309,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1332,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1355,7 +1351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1378,7 +1374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1401,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1424,15 +1420,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1447,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1470,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1493,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1516,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1539,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1547,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1559,29 +1555,6 @@
         <v>45337.275843611111</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I26" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E85AE4D-19DF-4EFA-BE72-4DD1A1B3DC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245DFAA-5CED-48E5-89F3-A00118AA0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>code</t>
   </si>
@@ -91,19 +91,7 @@
     <t>html file</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
     <t>ara</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>tam</t>
   </si>
 </sst>
 </file>
@@ -966,10 +954,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75675AD-CF53-4965-A4E4-E40E21499F14}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1014,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1031,10 +1019,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1054,13 +1042,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1077,13 +1065,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1095,466 +1083,6 @@
         <v>45337.275843611111</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1">
-        <v>45337.275843611111</v>
-      </c>
-      <c r="I25" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245DFAA-5CED-48E5-89F3-A00118AA0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38819C59-A8F7-4669-B0DA-87E3C7DB8F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D7F20F6-228D-4787-86FD-0B89BBB69399}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>code</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>html file</t>
-  </si>
-  <si>
-    <t>ara</t>
   </si>
 </sst>
 </file>
@@ -957,7 +954,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1002,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
